--- a/nmadb/501297.xlsx
+++ b/nmadb/501297.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afshin\Desktop\Working folder\St. Michael\NMA\NMA_DA\DA_NMA_1st Assignment\ready\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7080"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -43,9 +38,6 @@
     <t xml:space="preserve">Year </t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>2002a</t>
   </si>
   <si>
@@ -356,13 +348,16 @@
   </si>
   <si>
     <t>Shore-Lesserson</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,7 +535,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -582,7 +577,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -614,10 +609,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -649,7 +643,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -825,15 +818,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -844,7 +837,7 @@
     <col min="11" max="11" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -852,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>3</v>
@@ -871,12 +864,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1998</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -891,9 +884,9 @@
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -908,12 +901,12 @@
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>1995</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -928,14 +921,14 @@
         <v>49</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -954,15 +947,15 @@
         <v>1</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>2001</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -981,12 +974,12 @@
         <v>2</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1005,15 +998,15 @@
         <v>3</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -1032,12 +1025,12 @@
         <v>4</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -1052,12 +1045,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>2001</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -1072,9 +1065,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
@@ -1089,12 +1082,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>1997</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <v>6</v>
@@ -1109,9 +1102,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <v>6</v>
@@ -1126,12 +1119,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>1999</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>7</v>
@@ -1146,9 +1139,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
         <v>7</v>
@@ -1163,12 +1156,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>198</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
@@ -1183,9 +1176,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <v>8</v>
@@ -1200,12 +1193,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>1993</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
         <v>9</v>
@@ -1220,9 +1213,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
         <v>9</v>
@@ -1237,12 +1230,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>2000</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -1257,9 +1250,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <v>10</v>
@@ -1274,12 +1267,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>1994</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <v>11</v>
@@ -1294,9 +1287,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <v>11</v>
@@ -1311,9 +1304,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
         <v>11</v>
@@ -1328,12 +1321,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>1997</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1">
         <v>12</v>
@@ -1348,9 +1341,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1">
         <v>12</v>
@@ -1365,12 +1358,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>1995</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1">
         <v>13</v>
@@ -1385,9 +1378,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1">
         <v>13</v>
@@ -1402,12 +1395,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>1999</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1">
         <v>14</v>
@@ -1422,9 +1415,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1">
         <v>14</v>
@@ -1439,9 +1432,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="B31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1">
         <v>14</v>
@@ -1456,12 +1449,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>2000</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1">
         <v>15</v>
@@ -1476,9 +1469,9 @@
         <v>518</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1">
         <v>15</v>
@@ -1493,12 +1486,12 @@
         <v>522</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>2002</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1">
         <v>16</v>
@@ -1513,9 +1506,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1">
         <v>16</v>
@@ -1530,12 +1523,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>2006</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1">
         <v>17</v>
@@ -1550,9 +1543,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="B37" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="1">
         <v>17</v>
@@ -1567,12 +1560,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>1995</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="1">
         <v>18</v>
@@ -1587,9 +1580,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" s="1">
         <v>18</v>
@@ -1604,12 +1597,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>1998</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="1">
         <v>19</v>
@@ -1624,9 +1617,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="B41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1">
         <v>19</v>
@@ -1641,12 +1634,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>1992</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" s="1">
         <v>20</v>
@@ -1661,9 +1654,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="B43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C43" s="1">
         <v>20</v>
@@ -1678,12 +1671,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>1994</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" s="1">
         <v>21</v>
@@ -1698,9 +1691,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="B45" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" s="1">
         <v>21</v>
@@ -1715,12 +1708,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>1989</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46" s="1">
         <v>22</v>
@@ -1735,9 +1728,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="B47" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C47" s="1">
         <v>22</v>
@@ -1752,12 +1745,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>1992</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C48" s="1">
         <v>23</v>
@@ -1772,9 +1765,9 @@
         <v>902</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="B49" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C49" s="1">
         <v>23</v>
@@ -1795,12 +1788,12 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50" s="1">
         <v>1995</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" s="1">
         <v>24</v>
@@ -1821,9 +1814,9 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="B51" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C51" s="1">
         <v>24</v>
@@ -1844,12 +1837,12 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52" s="1">
         <v>2008</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52" s="1">
         <v>25</v>
@@ -1870,9 +1863,9 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="B53" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" s="1">
         <v>25</v>
@@ -1893,12 +1886,12 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54" s="1">
         <v>2001</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="1">
         <v>26</v>
@@ -1919,9 +1912,9 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="B55" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C55" s="1">
         <v>26</v>
@@ -1942,12 +1935,12 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56" s="1">
         <v>2005</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56" s="1">
         <v>27</v>
@@ -1968,9 +1961,9 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="B57" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57" s="1">
         <v>27</v>
@@ -1991,9 +1984,9 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="B58" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C58" s="1">
         <v>27</v>
@@ -2014,12 +2007,12 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59" s="1">
         <v>1997</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59" s="1">
         <v>28</v>
@@ -2040,9 +2033,9 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="B60" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C60" s="1">
         <v>28</v>
@@ -2063,12 +2056,12 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61" s="1">
         <v>1996</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C61" s="1">
         <v>29</v>
@@ -2089,9 +2082,9 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18">
       <c r="B62" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" s="1">
         <v>29</v>
@@ -2112,12 +2105,12 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18">
       <c r="A63" s="1">
         <v>1998</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C63" s="1">
         <v>30</v>
@@ -2138,9 +2131,9 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="B64" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" s="1">
         <v>30</v>
@@ -2161,12 +2154,12 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18">
       <c r="A65" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C65" s="1">
         <v>31</v>
@@ -2187,9 +2180,9 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18">
       <c r="B66" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C66" s="1">
         <v>31</v>
@@ -2210,12 +2203,12 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18">
       <c r="A67" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C67" s="1">
         <v>32</v>
@@ -2236,9 +2229,9 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18">
       <c r="B68" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C68" s="1">
         <v>32</v>
@@ -2253,12 +2246,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18">
       <c r="A69" s="1">
         <v>1994</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C69" s="1">
         <v>33</v>
@@ -2273,9 +2266,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18">
       <c r="B70" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C70" s="1">
         <v>33</v>
@@ -2290,12 +2283,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18">
       <c r="A71" s="1">
         <v>2008</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C71" s="1">
         <v>34</v>
@@ -2310,9 +2303,9 @@
         <v>779</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18">
       <c r="B72" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C72" s="1">
         <v>34</v>
@@ -2327,9 +2320,9 @@
         <v>769</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18">
       <c r="B73" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C73" s="1">
         <v>34</v>
@@ -2344,12 +2337,12 @@
         <v>780</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18">
       <c r="A74" s="1">
         <v>2000</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C74" s="1">
         <v>35</v>
@@ -2364,9 +2357,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18">
       <c r="B75" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C75" s="1">
         <v>35</v>
@@ -2381,12 +2374,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18">
       <c r="A76" s="1">
         <v>1998</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C76" s="1">
         <v>36</v>
@@ -2401,9 +2394,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18">
       <c r="B77" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C77" s="1">
         <v>36</v>
@@ -2418,12 +2411,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18">
       <c r="A78" s="1">
         <v>1995</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" s="1">
         <v>37</v>
@@ -2438,9 +2431,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18">
       <c r="B79" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C79" s="1">
         <v>37</v>
@@ -2455,12 +2448,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18">
       <c r="A80" s="1">
         <v>2009</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C80" s="1">
         <v>38</v>
@@ -2475,9 +2468,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="B81" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C81" s="1">
         <v>38</v>
@@ -2492,9 +2485,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="B82" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" s="1">
         <v>38</v>
@@ -2509,12 +2502,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>1993</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C83" s="1">
         <v>39</v>
@@ -2529,9 +2522,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="B84" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C84" s="1">
         <v>39</v>
@@ -2546,12 +2539,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>1998</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C85" s="1">
         <v>40</v>
@@ -2566,9 +2559,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="B86" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C86" s="1">
         <v>40</v>
@@ -2583,9 +2576,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="B87" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C87" s="1">
         <v>40</v>
@@ -2600,12 +2593,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>1997</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C88" s="1">
         <v>41</v>
@@ -2620,9 +2613,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="B89" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C89" s="1">
         <v>41</v>
@@ -2637,12 +2630,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>2004</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C90" s="1">
         <v>42</v>
@@ -2657,9 +2650,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="B91" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C91" s="1">
         <v>42</v>
@@ -2674,12 +2667,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>1997</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C92" s="1">
         <v>43</v>
@@ -2694,9 +2687,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="B93" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C93" s="1">
         <v>43</v>
@@ -2711,12 +2704,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>2007</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C94" s="1">
         <v>44</v>
@@ -2731,9 +2724,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="B95" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C95" s="1">
         <v>44</v>
@@ -2748,12 +2741,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>2005</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C96" s="1">
         <v>45</v>
@@ -2768,9 +2761,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="B97" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C97" s="1">
         <v>45</v>
@@ -2785,12 +2778,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>1997</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C98" s="1">
         <v>46</v>
@@ -2805,9 +2798,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="B99" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C99" s="1">
         <v>46</v>
@@ -2822,12 +2815,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>1996</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C100" s="1">
         <v>47</v>
@@ -2842,9 +2835,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="B101" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C101" s="1">
         <v>47</v>
@@ -2859,12 +2852,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>2003</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C102" s="1">
         <v>48</v>
@@ -2879,9 +2872,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="B103" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C103" s="1">
         <v>48</v>
@@ -2896,12 +2889,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>2003</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C104" s="1">
         <v>49</v>
@@ -2916,9 +2909,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="B105" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C105" s="1">
         <v>49</v>
@@ -2933,12 +2926,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>2004</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C106" s="1">
         <v>50</v>
@@ -2953,9 +2946,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="B107" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C107" s="1">
         <v>50</v>
@@ -2970,12 +2963,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>2003</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C108" s="1">
         <v>51</v>
@@ -2990,9 +2983,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="B109" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C109" s="1">
         <v>51</v>
@@ -3007,12 +3000,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110" s="1">
         <v>2005</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C110" s="1">
         <v>52</v>
@@ -3027,9 +3020,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="B111" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C111" s="1">
         <v>52</v>
@@ -3044,9 +3037,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="B112" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C112" s="1">
         <v>52</v>
@@ -3061,12 +3054,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>2005</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C113" s="1">
         <v>53</v>
@@ -3081,9 +3074,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="B114" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C114" s="1">
         <v>53</v>
@@ -3098,12 +3091,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>1997</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C115" s="1">
         <v>54</v>
@@ -3118,9 +3111,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="B116" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C116" s="1">
         <v>54</v>
@@ -3135,9 +3128,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="B117" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C117" s="1">
         <v>54</v>
@@ -3152,12 +3145,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>1995</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C118" s="1">
         <v>55</v>
@@ -3172,9 +3165,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="B119" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C119" s="1">
         <v>55</v>
@@ -3189,12 +3182,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>2009</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C120" s="1">
         <v>56</v>
@@ -3209,9 +3202,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="B121" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C121" s="1">
         <v>56</v>
@@ -3226,9 +3219,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="B122" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C122" s="1">
         <v>56</v>
@@ -3243,12 +3236,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>1996</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C123" s="1">
         <v>57</v>
@@ -3263,9 +3256,9 @@
         <v>526</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="B124" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C124" s="1">
         <v>57</v>
@@ -3280,12 +3273,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>1994</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C125" s="1">
         <v>58</v>
@@ -3300,9 +3293,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="B126" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C126" s="1">
         <v>58</v>
@@ -3317,12 +3310,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>1995</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C127" s="1">
         <v>59</v>
@@ -3337,9 +3330,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="B128" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C128" s="1">
         <v>59</v>
@@ -3354,12 +3347,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>1993</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C129" s="1">
         <v>60</v>
@@ -3374,9 +3367,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="B130" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C130" s="1">
         <v>60</v>
@@ -3391,12 +3384,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>1994</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C131" s="1">
         <v>61</v>
@@ -3411,9 +3404,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="B132" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C132" s="1">
         <v>61</v>
@@ -3428,12 +3421,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>2007</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C133" s="1">
         <v>62</v>
@@ -3448,9 +3441,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="B134" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C134" s="1">
         <v>62</v>
@@ -3465,12 +3458,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>1998</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C135" s="1">
         <v>63</v>
@@ -3485,9 +3478,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="B136" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C136" s="1">
         <v>63</v>
@@ -3502,9 +3495,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="B137" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C137" s="1">
         <v>63</v>
@@ -3519,12 +3512,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>1992</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C138" s="1">
         <v>64</v>
@@ -3539,9 +3532,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="B139" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C139" s="1">
         <v>64</v>
@@ -3556,12 +3549,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>1998</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C140" s="1">
         <v>65</v>
@@ -3576,9 +3569,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="B141" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C141" s="1">
         <v>65</v>
@@ -3593,12 +3586,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>2000</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C142" s="1">
         <v>66</v>
@@ -3613,9 +3606,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="B143" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C143" s="1">
         <v>66</v>
@@ -3630,12 +3623,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>2000</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C144" s="1">
         <v>67</v>
@@ -3650,9 +3643,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="B145" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C145" s="1">
         <v>67</v>
@@ -3667,9 +3660,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="B146" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C146" s="1">
         <v>67</v>
@@ -3684,12 +3677,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147" s="1">
         <v>1994</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C147" s="1">
         <v>68</v>
@@ -3704,9 +3697,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="B148" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C148" s="1">
         <v>68</v>
@@ -3721,12 +3714,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149" s="1">
         <v>1996</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C149" s="1">
         <v>69</v>
@@ -3741,9 +3734,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="B150" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C150" s="1">
         <v>69</v>
@@ -3758,12 +3751,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151" s="1">
         <v>1987</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C151" s="1">
         <v>70</v>
@@ -3778,9 +3771,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="B152" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C152" s="1">
         <v>70</v>
@@ -3795,12 +3788,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153" s="1">
         <v>2007</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C153" s="1">
         <v>71</v>
@@ -3815,9 +3808,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="B154" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C154" s="1">
         <v>71</v>
@@ -3832,12 +3825,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155" s="1">
         <v>2006</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C155" s="1">
         <v>72</v>
@@ -3852,9 +3845,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="B156" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C156" s="1">
         <v>72</v>
@@ -3869,12 +3862,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="A157" s="1">
         <v>2000</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C157" s="1">
         <v>73</v>
@@ -3889,9 +3882,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="B158" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C158" s="1">
         <v>73</v>
@@ -3906,12 +3899,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="A159" s="1">
         <v>1996</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C159" s="1">
         <v>74</v>
@@ -3926,9 +3919,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="B160" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C160" s="1">
         <v>74</v>
@@ -3943,12 +3936,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6">
       <c r="A161" s="1">
         <v>1997</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C161" s="1">
         <v>75</v>
@@ -3963,9 +3956,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6">
       <c r="B162" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C162" s="1">
         <v>75</v>
@@ -3980,12 +3973,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6">
       <c r="A163" s="1">
         <v>1994</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C163" s="1">
         <v>76</v>
@@ -4000,9 +3993,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6">
       <c r="B164" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C164" s="1">
         <v>76</v>
@@ -4017,12 +4010,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6">
       <c r="A165" s="1">
         <v>1992</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C165" s="1">
         <v>77</v>
@@ -4037,9 +4030,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6">
       <c r="B166" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C166" s="1">
         <v>77</v>
@@ -4054,12 +4047,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6">
       <c r="A167" s="1">
         <v>2005</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C167" s="1">
         <v>78</v>
@@ -4074,9 +4067,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
       <c r="B168" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C168" s="1">
         <v>78</v>
@@ -4091,12 +4084,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6">
       <c r="A169" s="1">
         <v>1996</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C169" s="1">
         <v>79</v>
@@ -4111,9 +4104,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6">
       <c r="B170" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C170" s="1">
         <v>79</v>
@@ -4128,12 +4121,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6">
       <c r="A171" s="1">
         <v>2006</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C171" s="1">
         <v>80</v>
@@ -4148,9 +4141,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6">
       <c r="B172" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C172" s="1">
         <v>80</v>
@@ -4165,12 +4158,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6">
       <c r="A173" s="1">
         <v>2000</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C173" s="1">
         <v>81</v>
@@ -4185,9 +4178,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6">
       <c r="B174" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C174" s="1">
         <v>81</v>
@@ -4202,12 +4195,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6">
       <c r="A175" s="1">
         <v>2002</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C175" s="1">
         <v>82</v>
@@ -4222,9 +4215,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6">
       <c r="B176" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C176" s="1">
         <v>82</v>
@@ -4246,12 +4239,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
